--- a/va_facility_data_2025-02-20/Huntsville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Huntsville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Huntsville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Huntsville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R006120d94ec84acdaa213c249e12977c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R82dc032b0fd04a269704cb6cb9d60eef"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b8ec978086942ee8159b675e47e3c5b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re0e5d714de17454d92c5880f845ae3e3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdad2d62037d642ffa7cb3534c1c73503"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R565c515e5ede43b6bc9aac111e43e8f9"/>
   </x:sheets>
 </x:workbook>
 </file>
